--- a/data/trans_orig/IP12BS02-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/IP12BS02-Habitat-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C07BB62F-3A7E-46D6-B552-3C224A89D0A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{AFC8AC6B-B871-4D8B-8351-7A9145621870}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{8EDFF2C7-745D-41FF-AF59-00D3A08A43E1}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{9D54B2BC-C3BB-4740-B387-F0A70EDBD458}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2598" uniqueCount="357">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2598" uniqueCount="356">
   <si>
     <t>Menores según el tipo de dolor sufrido que le limita 2 en 2007 (Tasa respuesta: 1,09%)</t>
   </si>
@@ -67,7 +67,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>Menos de 2</t>
+    <t>&lt;2.000hab</t>
   </si>
   <si>
     <t>Otros</t>
@@ -130,10 +130,10 @@
     <t>Problemas de nervios, dificultad para dormir</t>
   </si>
   <si>
-    <t>2/10</t>
-  </si>
-  <si>
-    <t>10/50</t>
+    <t>2-10.000 hab</t>
+  </si>
+  <si>
+    <t>10-50.000 hab</t>
   </si>
   <si>
     <t>52,55%</t>
@@ -142,13 +142,13 @@
     <t>16,85%</t>
   </si>
   <si>
-    <t>67,23%</t>
+    <t>67,38%</t>
   </si>
   <si>
     <t>26,38%</t>
   </si>
   <si>
-    <t>65,89%</t>
+    <t>66,18%</t>
   </si>
   <si>
     <t>56,93%</t>
@@ -163,13 +163,13 @@
     <t>29,49%</t>
   </si>
   <si>
-    <t>63,67%</t>
+    <t>80,81%</t>
   </si>
   <si>
     <t>21,62%</t>
   </si>
   <si>
-    <t>58,04%</t>
+    <t>58,78%</t>
   </si>
   <si>
     <t>47,45%</t>
@@ -178,40 +178,40 @@
     <t>17,53%</t>
   </si>
   <si>
-    <t>76,65%</t>
+    <t>68,02%</t>
   </si>
   <si>
     <t>25,52%</t>
   </si>
   <si>
-    <t>65,29%</t>
+    <t>66,49%</t>
   </si>
   <si>
     <t>18,05%</t>
   </si>
   <si>
-    <t>69,2%</t>
+    <t>69,37%</t>
   </si>
   <si>
     <t>13,23%</t>
   </si>
   <si>
-    <t>53,0%</t>
+    <t>52,69%</t>
   </si>
   <si>
     <t>18,08%</t>
   </si>
   <si>
-    <t>70,95%</t>
+    <t>69,58%</t>
   </si>
   <si>
     <t>13,25%</t>
   </si>
   <si>
-    <t>64,07%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
+    <t>52,92%</t>
+  </si>
+  <si>
+    <t>&gt;50.000hab</t>
   </si>
   <si>
     <t>30,57%</t>
@@ -226,13 +226,13 @@
     <t>19,49%</t>
   </si>
   <si>
-    <t>79,46%</t>
+    <t>79,5%</t>
   </si>
   <si>
     <t>28,36%</t>
   </si>
   <si>
-    <t>71,43%</t>
+    <t>70,81%</t>
   </si>
   <si>
     <t>49,82%</t>
@@ -241,13 +241,13 @@
     <t>21,43%</t>
   </si>
   <si>
-    <t>81,18%</t>
+    <t>81,31%</t>
   </si>
   <si>
     <t>29,65%</t>
   </si>
   <si>
-    <t>72,44%</t>
+    <t>72,98%</t>
   </si>
   <si>
     <t>20,11%</t>
@@ -259,7 +259,7 @@
     <t>14,29%</t>
   </si>
   <si>
-    <t>57,58%</t>
+    <t>57,53%</t>
   </si>
   <si>
     <t>38,97%</t>
@@ -271,7 +271,7 @@
     <t>27,7%</t>
   </si>
   <si>
-    <t>70,79%</t>
+    <t>70,67%</t>
   </si>
   <si>
     <t>Capitales</t>
@@ -280,124 +280,124 @@
     <t>17,46%</t>
   </si>
   <si>
-    <t>81,55%</t>
+    <t>67,83%</t>
   </si>
   <si>
     <t>14,81%</t>
   </si>
   <si>
-    <t>59,03%</t>
+    <t>66,38%</t>
   </si>
   <si>
     <t>17,09%</t>
   </si>
   <si>
-    <t>66,97%</t>
+    <t>67,5%</t>
   </si>
   <si>
     <t>14,49%</t>
   </si>
   <si>
-    <t>48,13%</t>
+    <t>58,72%</t>
   </si>
   <si>
     <t>31,77%</t>
   </si>
   <si>
-    <t>82,36%</t>
+    <t>82,02%</t>
   </si>
   <si>
     <t>26,94%</t>
   </si>
   <si>
-    <t>69,92%</t>
+    <t>70,41%</t>
   </si>
   <si>
     <t>16,21%</t>
   </si>
   <si>
-    <t>65,23%</t>
+    <t>79,53%</t>
   </si>
   <si>
     <t>13,74%</t>
   </si>
   <si>
-    <t>65,4%</t>
+    <t>56,17%</t>
   </si>
   <si>
     <t>15,22%</t>
   </si>
   <si>
-    <t>59,71%</t>
-  </si>
-  <si>
-    <t>68,37%</t>
-  </si>
-  <si>
-    <t>59,21%</t>
+    <t>49,55%</t>
+  </si>
+  <si>
+    <t>68,6%</t>
+  </si>
+  <si>
+    <t>59,34%</t>
   </si>
   <si>
     <t>20,39%</t>
   </si>
   <si>
-    <t>56,8%</t>
+    <t>57,7%</t>
   </si>
   <si>
     <t>8,07%</t>
   </si>
   <si>
-    <t>38,21%</t>
+    <t>33,89%</t>
   </si>
   <si>
     <t>14,23%</t>
   </si>
   <si>
-    <t>4,1%</t>
-  </si>
-  <si>
-    <t>34,76%</t>
+    <t>4,03%</t>
+  </si>
+  <si>
+    <t>34,45%</t>
   </si>
   <si>
     <t>18,1%</t>
   </si>
   <si>
-    <t>53,75%</t>
+    <t>51,79%</t>
   </si>
   <si>
     <t>8,26%</t>
   </si>
   <si>
-    <t>38,19%</t>
+    <t>41,48%</t>
   </si>
   <si>
     <t>13,19%</t>
   </si>
   <si>
-    <t>4,07%</t>
-  </si>
-  <si>
-    <t>33,28%</t>
+    <t>4,15%</t>
+  </si>
+  <si>
+    <t>35,58%</t>
   </si>
   <si>
     <t>9,24%</t>
   </si>
   <si>
-    <t>55,05%</t>
+    <t>37,51%</t>
   </si>
   <si>
     <t>14,12%</t>
   </si>
   <si>
-    <t>37,65%</t>
+    <t>44,79%</t>
   </si>
   <si>
     <t>11,68%</t>
   </si>
   <si>
-    <t>3,48%</t>
-  </si>
-  <si>
-    <t>30,66%</t>
+    <t>3,44%</t>
+  </si>
+  <si>
+    <t>30,54%</t>
   </si>
   <si>
     <t>15,69%</t>
@@ -412,94 +412,94 @@
     <t>34,05%</t>
   </si>
   <si>
-    <t>8,31%</t>
-  </si>
-  <si>
-    <t>62,26%</t>
+    <t>8,39%</t>
+  </si>
+  <si>
+    <t>68,18%</t>
   </si>
   <si>
     <t>17,48%</t>
   </si>
   <si>
-    <t>51,19%</t>
+    <t>51,15%</t>
   </si>
   <si>
     <t>25,77%</t>
   </si>
   <si>
-    <t>12,29%</t>
-  </si>
-  <si>
-    <t>46,45%</t>
+    <t>8,99%</t>
+  </si>
+  <si>
+    <t>46,92%</t>
   </si>
   <si>
     <t>8,77%</t>
   </si>
   <si>
-    <t>36,17%</t>
+    <t>36,34%</t>
   </si>
   <si>
     <t>8,64%</t>
   </si>
   <si>
-    <t>42,88%</t>
+    <t>34,68%</t>
   </si>
   <si>
     <t>8,7%</t>
   </si>
   <si>
-    <t>26,39%</t>
+    <t>25,91%</t>
   </si>
   <si>
     <t>8,53%</t>
   </si>
   <si>
-    <t>43,2%</t>
+    <t>39,36%</t>
   </si>
   <si>
     <t>4,26%</t>
   </si>
   <si>
-    <t>18,03%</t>
+    <t>21,29%</t>
   </si>
   <si>
     <t>16,53%</t>
   </si>
   <si>
-    <t>43,38%</t>
-  </si>
-  <si>
-    <t>25,84%</t>
+    <t>49,73%</t>
+  </si>
+  <si>
+    <t>26,52%</t>
   </si>
   <si>
     <t>9,71%</t>
   </si>
   <si>
-    <t>39,06%</t>
+    <t>46,07%</t>
   </si>
   <si>
     <t>4,86%</t>
   </si>
   <si>
-    <t>23,49%</t>
+    <t>21,11%</t>
   </si>
   <si>
     <t>9,45%</t>
   </si>
   <si>
-    <t>43,9%</t>
+    <t>38,07%</t>
   </si>
   <si>
     <t>8,66%</t>
   </si>
   <si>
-    <t>40,28%</t>
+    <t>37,86%</t>
   </si>
   <si>
     <t>9,05%</t>
   </si>
   <si>
-    <t>28,93%</t>
+    <t>27,76%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
@@ -517,19 +517,19 @@
     <t>16,83%</t>
   </si>
   <si>
-    <t>75,45%</t>
+    <t>77,14%</t>
   </si>
   <si>
     <t>11,98%</t>
   </si>
   <si>
-    <t>54,53%</t>
+    <t>44,28%</t>
   </si>
   <si>
     <t>64,61%</t>
   </si>
   <si>
-    <t>19,36%</t>
+    <t>18,98%</t>
   </si>
   <si>
     <t>43,66%</t>
@@ -538,10 +538,10 @@
     <t>58,57%</t>
   </si>
   <si>
-    <t>15,21%</t>
-  </si>
-  <si>
-    <t>88,53%</t>
+    <t>18,82%</t>
+  </si>
+  <si>
+    <t>88,42%</t>
   </si>
   <si>
     <t>56,34%</t>
@@ -550,19 +550,19 @@
     <t>16,25%</t>
   </si>
   <si>
-    <t>68,68%</t>
+    <t>62,68%</t>
   </si>
   <si>
     <t>18,56%</t>
   </si>
   <si>
-    <t>80,76%</t>
+    <t>81,38%</t>
   </si>
   <si>
     <t>13,2%</t>
   </si>
   <si>
-    <t>56,16%</t>
+    <t>56,71%</t>
   </si>
   <si>
     <t>44,41%</t>
@@ -583,34 +583,34 @@
     <t>22,27%</t>
   </si>
   <si>
-    <t>61,92%</t>
+    <t>61,0%</t>
   </si>
   <si>
     <t>84,94%</t>
   </si>
   <si>
-    <t>20,56%</t>
+    <t>27,36%</t>
   </si>
   <si>
     <t>57,14%</t>
   </si>
   <si>
-    <t>17,69%</t>
-  </si>
-  <si>
-    <t>81,8%</t>
+    <t>16,91%</t>
+  </si>
+  <si>
+    <t>87,54%</t>
   </si>
   <si>
     <t>15,06%</t>
   </si>
   <si>
-    <t>79,44%</t>
+    <t>72,64%</t>
   </si>
   <si>
     <t>10,13%</t>
   </si>
   <si>
-    <t>59,12%</t>
+    <t>46,25%</t>
   </si>
   <si>
     <t>31,97%</t>
@@ -619,7 +619,7 @@
     <t>10,47%</t>
   </si>
   <si>
-    <t>58,72%</t>
+    <t>49,44%</t>
   </si>
   <si>
     <t>24,22%</t>
@@ -631,7 +631,7 @@
     <t>16,05%</t>
   </si>
   <si>
-    <t>68,27%</t>
+    <t>62,98%</t>
   </si>
   <si>
     <t>36,25%</t>
@@ -649,28 +649,28 @@
     <t>31,11%</t>
   </si>
   <si>
-    <t>81,28%</t>
+    <t>67,62%</t>
   </si>
   <si>
     <t>30,63%</t>
   </si>
   <si>
-    <t>80,35%</t>
-  </si>
-  <si>
     <t>20,3%</t>
   </si>
   <si>
-    <t>72,3%</t>
+    <t>72,34%</t>
   </si>
   <si>
     <t>22,48%</t>
   </si>
   <si>
+    <t>74,85%</t>
+  </si>
+  <si>
     <t>14,9%</t>
   </si>
   <si>
-    <t>62,56%</t>
+    <t>64,94%</t>
   </si>
   <si>
     <t>52,3%</t>
@@ -679,28 +679,28 @@
     <t>17,64%</t>
   </si>
   <si>
-    <t>69,45%</t>
+    <t>68,72%</t>
   </si>
   <si>
     <t>6,81%</t>
   </si>
   <si>
-    <t>29,56%</t>
+    <t>32,06%</t>
   </si>
   <si>
     <t>15,11%</t>
   </si>
   <si>
-    <t>46,48%</t>
+    <t>47,0%</t>
   </si>
   <si>
     <t>10,52%</t>
   </si>
   <si>
-    <t>3,24%</t>
-  </si>
-  <si>
-    <t>28,47%</t>
+    <t>3,22%</t>
+  </si>
+  <si>
+    <t>28,87%</t>
   </si>
   <si>
     <t>12,61%</t>
@@ -712,397 +712,394 @@
     <t>5,9%</t>
   </si>
   <si>
-    <t>30,91%</t>
+    <t>25,37%</t>
   </si>
   <si>
     <t>3,26%</t>
   </si>
   <si>
-    <t>16,02%</t>
+    <t>17,89%</t>
   </si>
   <si>
     <t>60,31%</t>
   </si>
   <si>
-    <t>34,07%</t>
-  </si>
-  <si>
-    <t>82,42%</t>
+    <t>32,15%</t>
+  </si>
+  <si>
+    <t>85,6%</t>
   </si>
   <si>
     <t>33,56%</t>
   </si>
   <si>
-    <t>8,65%</t>
-  </si>
-  <si>
-    <t>67,46%</t>
+    <t>9,47%</t>
+  </si>
+  <si>
+    <t>65,74%</t>
   </si>
   <si>
     <t>48,36%</t>
   </si>
   <si>
-    <t>29,47%</t>
-  </si>
-  <si>
-    <t>67,03%</t>
+    <t>28,71%</t>
+  </si>
+  <si>
+    <t>68,39%</t>
   </si>
   <si>
     <t>5,55%</t>
   </si>
   <si>
-    <t>30,46%</t>
+    <t>31,51%</t>
   </si>
   <si>
     <t>3,07%</t>
   </si>
   <si>
-    <t>16,45%</t>
+    <t>16,63%</t>
   </si>
   <si>
     <t>9,91%</t>
   </si>
   <si>
-    <t>45,76%</t>
+    <t>45,52%</t>
   </si>
   <si>
     <t>4,43%</t>
   </si>
   <si>
-    <t>22,05%</t>
+    <t>22,19%</t>
   </si>
   <si>
     <t>7,1%</t>
   </si>
   <si>
-    <t>30,98%</t>
+    <t>31,54%</t>
   </si>
   <si>
     <t>3,17%</t>
   </si>
   <si>
-    <t>16,14%</t>
+    <t>13,49%</t>
   </si>
   <si>
     <t>6,5%</t>
   </si>
   <si>
-    <t>34,34%</t>
+    <t>27,56%</t>
   </si>
   <si>
     <t>3,6%</t>
   </si>
   <si>
-    <t>18,94%</t>
+    <t>21,92%</t>
   </si>
   <si>
     <t>8,61%</t>
   </si>
   <si>
-    <t>34,82%</t>
+    <t>42,29%</t>
   </si>
   <si>
     <t>4,76%</t>
   </si>
   <si>
-    <t>23,1%</t>
+    <t>19,55%</t>
   </si>
   <si>
     <t>6,32%</t>
   </si>
   <si>
-    <t>29,1%</t>
+    <t>28,49%</t>
   </si>
   <si>
     <t>7,49%</t>
   </si>
   <si>
+    <t>31,42%</t>
+  </si>
+  <si>
+    <t>6,84%</t>
+  </si>
+  <si>
+    <t>24,19%</t>
+  </si>
+  <si>
+    <t>26,83%</t>
+  </si>
+  <si>
+    <t>7,17%</t>
+  </si>
+  <si>
+    <t>54,88%</t>
+  </si>
+  <si>
+    <t>11,99%</t>
+  </si>
+  <si>
+    <t>3,28%</t>
+  </si>
+  <si>
+    <t>34,19%</t>
+  </si>
+  <si>
+    <t>Menores según el tipo de dolor sufrido que le limita 2 en 2016 (Tasa respuesta: 1,13%)</t>
+  </si>
+  <si>
+    <t>59,28%</t>
+  </si>
+  <si>
+    <t>29,2%</t>
+  </si>
+  <si>
+    <t>81,37%</t>
+  </si>
+  <si>
+    <t>46,06%</t>
+  </si>
+  <si>
+    <t>40,72%</t>
+  </si>
+  <si>
+    <t>43,43%</t>
+  </si>
+  <si>
+    <t>53,94%</t>
+  </si>
+  <si>
+    <t>27,37%</t>
+  </si>
+  <si>
+    <t>80,37%</t>
+  </si>
+  <si>
+    <t>32,35%</t>
+  </si>
+  <si>
+    <t>76,42%</t>
+  </si>
+  <si>
+    <t>22,16%</t>
+  </si>
+  <si>
+    <t>62,0%</t>
+  </si>
+  <si>
+    <t>17,08%</t>
+  </si>
+  <si>
+    <t>27,33%</t>
+  </si>
+  <si>
+    <t>70,82%</t>
+  </si>
+  <si>
+    <t>18,73%</t>
+  </si>
+  <si>
+    <t>50,76%</t>
+  </si>
+  <si>
+    <t>66,04%</t>
+  </si>
+  <si>
+    <t>25,15%</t>
+  </si>
+  <si>
+    <t>69,82%</t>
+  </si>
+  <si>
+    <t>38,02%</t>
+  </si>
+  <si>
+    <t>9,02%</t>
+  </si>
+  <si>
+    <t>71,01%</t>
+  </si>
+  <si>
+    <t>33,96%</t>
+  </si>
+  <si>
+    <t>10,69%</t>
+  </si>
+  <si>
+    <t>44,12%</t>
+  </si>
+  <si>
+    <t>15,18%</t>
+  </si>
+  <si>
+    <t>60,93%</t>
+  </si>
+  <si>
+    <t>10,4%</t>
+  </si>
+  <si>
+    <t>42,94%</t>
+  </si>
+  <si>
+    <t>22,1%</t>
+  </si>
+  <si>
+    <t>46,81%</t>
+  </si>
+  <si>
+    <t>31,09%</t>
+  </si>
+  <si>
+    <t>80,85%</t>
+  </si>
+  <si>
+    <t>27,97%</t>
+  </si>
+  <si>
+    <t>80,41%</t>
+  </si>
+  <si>
+    <t>44,76%</t>
+  </si>
+  <si>
+    <t>54,09%</t>
+  </si>
+  <si>
+    <t>15,46%</t>
+  </si>
+  <si>
+    <t>27,27%</t>
+  </si>
+  <si>
+    <t>22,66%</t>
+  </si>
+  <si>
+    <t>80,71%</t>
+  </si>
+  <si>
+    <t>22,47%</t>
+  </si>
+  <si>
+    <t>5,62%</t>
+  </si>
+  <si>
+    <t>49,72%</t>
+  </si>
+  <si>
+    <t>13,11%</t>
+  </si>
+  <si>
+    <t>3,34%</t>
+  </si>
+  <si>
+    <t>31,9%</t>
+  </si>
+  <si>
+    <t>7,61%</t>
+  </si>
+  <si>
+    <t>11,92%</t>
+  </si>
+  <si>
+    <t>38,09%</t>
+  </si>
+  <si>
+    <t>6,96%</t>
+  </si>
+  <si>
+    <t>25,05%</t>
+  </si>
+  <si>
+    <t>9,38%</t>
+  </si>
+  <si>
+    <t>39,04%</t>
+  </si>
+  <si>
+    <t>3,91%</t>
+  </si>
+  <si>
+    <t>20,38%</t>
+  </si>
+  <si>
+    <t>79,42%</t>
+  </si>
+  <si>
     <t>32,96%</t>
   </si>
   <si>
-    <t>6,84%</t>
-  </si>
-  <si>
-    <t>22,74%</t>
-  </si>
-  <si>
-    <t>26,83%</t>
-  </si>
-  <si>
-    <t>7,64%</t>
-  </si>
-  <si>
-    <t>60,07%</t>
-  </si>
-  <si>
-    <t>11,99%</t>
-  </si>
-  <si>
-    <t>3,25%</t>
-  </si>
-  <si>
-    <t>31,65%</t>
-  </si>
-  <si>
-    <t>Menores según el tipo de dolor sufrido que le limita 2 en 2015 (Tasa respuesta: 1,13%)</t>
-  </si>
-  <si>
-    <t>59,28%</t>
-  </si>
-  <si>
-    <t>29,2%</t>
-  </si>
-  <si>
-    <t>81,37%</t>
-  </si>
-  <si>
-    <t>46,06%</t>
-  </si>
-  <si>
-    <t>40,72%</t>
-  </si>
-  <si>
-    <t>43,43%</t>
-  </si>
-  <si>
-    <t>53,94%</t>
-  </si>
-  <si>
-    <t>27,37%</t>
-  </si>
-  <si>
-    <t>80,37%</t>
-  </si>
-  <si>
-    <t>32,35%</t>
-  </si>
-  <si>
-    <t>74,99%</t>
-  </si>
-  <si>
-    <t>22,16%</t>
-  </si>
-  <si>
-    <t>55,74%</t>
-  </si>
-  <si>
-    <t>17,08%</t>
-  </si>
-  <si>
-    <t>27,33%</t>
-  </si>
-  <si>
-    <t>68,55%</t>
-  </si>
-  <si>
-    <t>18,73%</t>
-  </si>
-  <si>
-    <t>53,67%</t>
-  </si>
-  <si>
-    <t>66,04%</t>
-  </si>
-  <si>
-    <t>25,15%</t>
-  </si>
-  <si>
-    <t>69,28%</t>
-  </si>
-  <si>
-    <t>38,02%</t>
-  </si>
-  <si>
-    <t>9,59%</t>
-  </si>
-  <si>
-    <t>70,23%</t>
-  </si>
-  <si>
-    <t>33,96%</t>
-  </si>
-  <si>
-    <t>10,69%</t>
-  </si>
-  <si>
-    <t>43,01%</t>
-  </si>
-  <si>
-    <t>15,18%</t>
-  </si>
-  <si>
-    <t>47,41%</t>
-  </si>
-  <si>
-    <t>10,4%</t>
-  </si>
-  <si>
-    <t>48,74%</t>
-  </si>
-  <si>
-    <t>22,1%</t>
-  </si>
-  <si>
-    <t>46,81%</t>
-  </si>
-  <si>
-    <t>31,09%</t>
-  </si>
-  <si>
-    <t>80,85%</t>
-  </si>
-  <si>
-    <t>27,97%</t>
-  </si>
-  <si>
-    <t>78,53%</t>
-  </si>
-  <si>
-    <t>44,76%</t>
-  </si>
-  <si>
-    <t>54,09%</t>
-  </si>
-  <si>
-    <t>15,54%</t>
-  </si>
-  <si>
-    <t>27,27%</t>
-  </si>
-  <si>
-    <t>79,5%</t>
-  </si>
-  <si>
-    <t>22,66%</t>
-  </si>
-  <si>
-    <t>77,57%</t>
-  </si>
-  <si>
-    <t>22,47%</t>
-  </si>
-  <si>
-    <t>6,23%</t>
-  </si>
-  <si>
-    <t>53,99%</t>
-  </si>
-  <si>
-    <t>13,11%</t>
-  </si>
-  <si>
-    <t>3,39%</t>
-  </si>
-  <si>
-    <t>32,85%</t>
-  </si>
-  <si>
-    <t>7,61%</t>
-  </si>
-  <si>
-    <t>11,92%</t>
-  </si>
-  <si>
-    <t>32,94%</t>
-  </si>
-  <si>
-    <t>6,96%</t>
-  </si>
-  <si>
-    <t>20,58%</t>
-  </si>
-  <si>
-    <t>9,38%</t>
-  </si>
-  <si>
-    <t>39,8%</t>
-  </si>
-  <si>
-    <t>3,91%</t>
-  </si>
-  <si>
-    <t>18,63%</t>
-  </si>
-  <si>
-    <t>46,92%</t>
-  </si>
-  <si>
-    <t>17,58%</t>
-  </si>
-  <si>
-    <t>77,96%</t>
-  </si>
-  <si>
-    <t>11,11%</t>
-  </si>
-  <si>
-    <t>59,25%</t>
+    <t>12,49%</t>
+  </si>
+  <si>
+    <t>63,02%</t>
   </si>
   <si>
     <t>38,77%</t>
   </si>
   <si>
-    <t>20,06%</t>
-  </si>
-  <si>
-    <t>58,15%</t>
-  </si>
-  <si>
-    <t>48,31%</t>
+    <t>21,57%</t>
+  </si>
+  <si>
+    <t>60,75%</t>
+  </si>
+  <si>
+    <t>56,9%</t>
   </si>
   <si>
     <t>5,5%</t>
   </si>
   <si>
-    <t>26,9%</t>
+    <t>21,52%</t>
   </si>
   <si>
     <t>9,66%</t>
   </si>
   <si>
-    <t>46,97%</t>
+    <t>47,1%</t>
   </si>
   <si>
     <t>14,06%</t>
   </si>
   <si>
-    <t>40,45%</t>
+    <t>43,89%</t>
   </si>
   <si>
     <t>12,23%</t>
   </si>
   <si>
-    <t>3,51%</t>
-  </si>
-  <si>
-    <t>34,78%</t>
+    <t>0,83%</t>
+  </si>
+  <si>
+    <t>29,23%</t>
   </si>
   <si>
     <t>9,54%</t>
   </si>
   <si>
-    <t>39,56%</t>
+    <t>40,14%</t>
   </si>
   <si>
     <t>3,97%</t>
   </si>
   <si>
+    <t>24,56%</t>
+  </si>
+  <si>
     <t>11,31%</t>
   </si>
   <si>
-    <t>42,96%</t>
+    <t>44,82%</t>
   </si>
   <si>
     <t>4,71%</t>
   </si>
   <si>
-    <t>23,77%</t>
+    <t>20,15%</t>
   </si>
   <si>
     <t>18,59%</t>
   </si>
   <si>
-    <t>57,78%</t>
+    <t>47,98%</t>
   </si>
   <si>
     <t>10,85%</t>
@@ -1520,7 +1517,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8C9779C-4FF1-44BB-BCF6-D5FC97ED3A15}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A82C040-908D-46B5-B034-9DCC716971D6}">
   <dimension ref="A1:Q88"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -5837,7 +5834,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F2F384A-743F-4944-9ACB-EBFB45697F74}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{637DB3E4-8DC4-46DE-A281-F418E47DE26A}">
   <dimension ref="A1:Q88"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -9234,7 +9231,7 @@
         <v>16</v>
       </c>
       <c r="G69" s="7" t="s">
-        <v>205</v>
+        <v>11</v>
       </c>
       <c r="H69" s="7">
         <v>0</v>
@@ -9258,13 +9255,13 @@
         <v>942</v>
       </c>
       <c r="O69" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="P69" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q69" s="7" t="s">
         <v>206</v>
-      </c>
-      <c r="P69" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q69" s="7" t="s">
-        <v>207</v>
       </c>
     </row>
     <row r="70" spans="1:17" x14ac:dyDescent="0.3">
@@ -9279,13 +9276,13 @@
         <v>691</v>
       </c>
       <c r="E70" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="F70" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G70" s="7" t="s">
         <v>208</v>
-      </c>
-      <c r="F70" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="G70" s="7" t="s">
-        <v>11</v>
       </c>
       <c r="H70" s="7">
         <v>0</v>
@@ -10210,7 +10207,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{217B1186-BC2C-4240-89E6-83C1B834F01A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E8FB349-5009-43C2-A951-A08FA8D39BDE}">
   <dimension ref="A1:Q88"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -13469,7 +13466,7 @@
         <v>16</v>
       </c>
       <c r="L66" s="7" t="s">
-        <v>310</v>
+        <v>62</v>
       </c>
       <c r="M66" s="7">
         <v>1</v>
@@ -13478,13 +13475,13 @@
         <v>772</v>
       </c>
       <c r="O66" s="7" t="s">
+        <v>310</v>
+      </c>
+      <c r="P66" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q66" s="7" t="s">
         <v>311</v>
-      </c>
-      <c r="P66" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q66" s="7" t="s">
-        <v>312</v>
       </c>
     </row>
     <row r="67" spans="1:17" x14ac:dyDescent="0.3">
@@ -13873,13 +13870,13 @@
         <v>2127</v>
       </c>
       <c r="J74" s="7" t="s">
+        <v>312</v>
+      </c>
+      <c r="K74" s="7" t="s">
         <v>313</v>
       </c>
-      <c r="K74" s="7" t="s">
+      <c r="L74" s="7" t="s">
         <v>314</v>
-      </c>
-      <c r="L74" s="7" t="s">
-        <v>315</v>
       </c>
       <c r="M74" s="7">
         <v>3</v>
@@ -13888,13 +13885,13 @@
         <v>2127</v>
       </c>
       <c r="O74" s="7" t="s">
+        <v>315</v>
+      </c>
+      <c r="P74" s="7" t="s">
         <v>316</v>
       </c>
-      <c r="P74" s="7" t="s">
+      <c r="Q74" s="7" t="s">
         <v>317</v>
-      </c>
-      <c r="Q74" s="7" t="s">
-        <v>318</v>
       </c>
     </row>
     <row r="75" spans="1:17" x14ac:dyDescent="0.3">
@@ -13945,7 +13942,7 @@
         <v>17</v>
       </c>
       <c r="Q75" s="7" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="76" spans="1:17" x14ac:dyDescent="0.3">
@@ -13975,13 +13972,13 @@
         <v>1128</v>
       </c>
       <c r="J76" s="7" t="s">
+        <v>319</v>
+      </c>
+      <c r="K76" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="L76" s="7" t="s">
         <v>320</v>
-      </c>
-      <c r="K76" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="L76" s="7" t="s">
-        <v>321</v>
       </c>
       <c r="M76" s="7">
         <v>2</v>
@@ -13990,13 +13987,13 @@
         <v>1128</v>
       </c>
       <c r="O76" s="7" t="s">
+        <v>321</v>
+      </c>
+      <c r="P76" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q76" s="7" t="s">
         <v>322</v>
-      </c>
-      <c r="P76" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q76" s="7" t="s">
-        <v>323</v>
       </c>
     </row>
     <row r="77" spans="1:17" x14ac:dyDescent="0.3">
@@ -14011,13 +14008,13 @@
         <v>634</v>
       </c>
       <c r="E77" s="7" t="s">
+        <v>323</v>
+      </c>
+      <c r="F77" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G77" s="7" t="s">
         <v>324</v>
-      </c>
-      <c r="F77" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="G77" s="7" t="s">
-        <v>325</v>
       </c>
       <c r="H77" s="7">
         <v>0</v>
@@ -14041,13 +14038,13 @@
         <v>634</v>
       </c>
       <c r="O77" s="7" t="s">
+        <v>325</v>
+      </c>
+      <c r="P77" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q77" s="7" t="s">
         <v>326</v>
-      </c>
-      <c r="P77" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q77" s="7" t="s">
-        <v>327</v>
       </c>
     </row>
     <row r="78" spans="1:17" x14ac:dyDescent="0.3">
@@ -14062,13 +14059,13 @@
         <v>3170</v>
       </c>
       <c r="E78" s="7" t="s">
-        <v>328</v>
+        <v>130</v>
       </c>
       <c r="F78" s="7" t="s">
-        <v>329</v>
+        <v>212</v>
       </c>
       <c r="G78" s="7" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="H78" s="7">
         <v>5</v>
@@ -14077,13 +14074,13 @@
         <v>3119</v>
       </c>
       <c r="J78" s="7" t="s">
-        <v>259</v>
+        <v>328</v>
       </c>
       <c r="K78" s="7" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="L78" s="7" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="M78" s="7">
         <v>10</v>
@@ -14092,13 +14089,13 @@
         <v>6289</v>
       </c>
       <c r="O78" s="7" t="s">
+        <v>331</v>
+      </c>
+      <c r="P78" s="7" t="s">
+        <v>332</v>
+      </c>
+      <c r="Q78" s="7" t="s">
         <v>333</v>
-      </c>
-      <c r="P78" s="7" t="s">
-        <v>334</v>
-      </c>
-      <c r="Q78" s="7" t="s">
-        <v>335</v>
       </c>
     </row>
     <row r="79" spans="1:17" x14ac:dyDescent="0.3">
@@ -14119,7 +14116,7 @@
         <v>16</v>
       </c>
       <c r="G79" s="7" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="H79" s="7">
         <v>0</v>
@@ -14143,13 +14140,13 @@
         <v>891</v>
       </c>
       <c r="O79" s="7" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="P79" s="7" t="s">
         <v>16</v>
       </c>
       <c r="Q79" s="7" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
     </row>
     <row r="80" spans="1:17" x14ac:dyDescent="0.3">
@@ -14164,13 +14161,13 @@
         <v>652</v>
       </c>
       <c r="E80" s="7" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="F80" s="7" t="s">
         <v>16</v>
       </c>
       <c r="G80" s="7" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="H80" s="7">
         <v>2</v>
@@ -14179,13 +14176,13 @@
         <v>1331</v>
       </c>
       <c r="J80" s="7" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="K80" s="7" t="s">
         <v>16</v>
       </c>
       <c r="L80" s="7" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="M80" s="7">
         <v>3</v>
@@ -14194,13 +14191,13 @@
         <v>1984</v>
       </c>
       <c r="O80" s="7" t="s">
+        <v>341</v>
+      </c>
+      <c r="P80" s="7" t="s">
+        <v>342</v>
+      </c>
+      <c r="Q80" s="7" t="s">
         <v>343</v>
-      </c>
-      <c r="P80" s="7" t="s">
-        <v>344</v>
-      </c>
-      <c r="Q80" s="7" t="s">
-        <v>345</v>
       </c>
     </row>
     <row r="81" spans="1:17" x14ac:dyDescent="0.3">
@@ -14215,13 +14212,13 @@
         <v>644</v>
       </c>
       <c r="E81" s="7" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="F81" s="7" t="s">
         <v>16</v>
       </c>
       <c r="G81" s="7" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="H81" s="7">
         <v>0</v>
@@ -14245,13 +14242,13 @@
         <v>644</v>
       </c>
       <c r="O81" s="7" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="P81" s="7" t="s">
         <v>16</v>
       </c>
       <c r="Q81" s="7" t="s">
-        <v>323</v>
+        <v>347</v>
       </c>
     </row>
     <row r="82" spans="1:17" x14ac:dyDescent="0.3">
@@ -14266,13 +14263,13 @@
         <v>764</v>
       </c>
       <c r="E82" s="7" t="s">
+        <v>348</v>
+      </c>
+      <c r="F82" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G82" s="7" t="s">
         <v>349</v>
-      </c>
-      <c r="F82" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="G82" s="7" t="s">
-        <v>350</v>
       </c>
       <c r="H82" s="7">
         <v>0</v>
@@ -14296,13 +14293,13 @@
         <v>764</v>
       </c>
       <c r="O82" s="7" t="s">
+        <v>350</v>
+      </c>
+      <c r="P82" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q82" s="7" t="s">
         <v>351</v>
-      </c>
-      <c r="P82" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q82" s="7" t="s">
-        <v>352</v>
       </c>
     </row>
     <row r="83" spans="1:17" x14ac:dyDescent="0.3">
@@ -14353,7 +14350,7 @@
         <v>17</v>
       </c>
       <c r="Q83" s="7" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="84" spans="1:17" x14ac:dyDescent="0.3">
@@ -14383,13 +14380,13 @@
         <v>1759</v>
       </c>
       <c r="J84" s="7" t="s">
+        <v>352</v>
+      </c>
+      <c r="K84" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="L84" s="7" t="s">
         <v>353</v>
-      </c>
-      <c r="K84" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="L84" s="7" t="s">
-        <v>354</v>
       </c>
       <c r="M84" s="7">
         <v>2</v>
@@ -14398,13 +14395,13 @@
         <v>1759</v>
       </c>
       <c r="O84" s="7" t="s">
+        <v>354</v>
+      </c>
+      <c r="P84" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q84" s="7" t="s">
         <v>355</v>
-      </c>
-      <c r="P84" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q84" s="7" t="s">
-        <v>356</v>
       </c>
     </row>
     <row r="85" spans="1:17" x14ac:dyDescent="0.3">
@@ -14455,7 +14452,7 @@
         <v>17</v>
       </c>
       <c r="Q85" s="7" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="86" spans="1:17" x14ac:dyDescent="0.3">
@@ -14506,7 +14503,7 @@
         <v>17</v>
       </c>
       <c r="Q86" s="7" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="87" spans="1:17" x14ac:dyDescent="0.3">
